--- a/biology/Médecine/Louis-Pierre_Maingault/Louis-Pierre_Maingault.xlsx
+++ b/biology/Médecine/Louis-Pierre_Maingault/Louis-Pierre_Maingault.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Louis-Pierre Maingault, né le 23 avril 1783 à Preuilly-sur-Claise[1] et mort le 11 juin 1839 à Paris (10e arrondissement ancien[2]), est un médecin français.
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Louis-Pierre Maingault, né le 23 avril 1783 à Preuilly-sur-Claise et mort le 11 juin 1839 à Paris (10e arrondissement ancien), est un médecin français.
 </t>
         </is>
       </c>
@@ -511,12 +523,14 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Élève de Jean-Nicolas Corvisart, il soutient sa thèse de doctorat de médecine à la Faculté de médecine de Paris le 22 février 1810.
-Il fait partie de la suite de Napoléon Ier qui doit l'accompagner durant l'exil de l'ancien empereur. Néanmoins, en apprenant le départ pour Sainte-Hélène au lieu de l'Amérique, il demande à rentrer en France, ce qui lui est accordé. Il débarque à Plymouth[3].
-En 1823, le docteur Maingault est domicilié 41 rue du Four à Paris et est membre du Cercle médical de la capitale[4].
-Professeur particulier d'anatomie et de physiologie, ancien interne des hôpitaux civils de Paris, il est élu membre adjoint résident de l'Académie royale de médecine en 1823[3].
+Il fait partie de la suite de Napoléon Ier qui doit l'accompagner durant l'exil de l'ancien empereur. Néanmoins, en apprenant le départ pour Sainte-Hélène au lieu de l'Amérique, il demande à rentrer en France, ce qui lui est accordé. Il débarque à Plymouth.
+En 1823, le docteur Maingault est domicilié 41 rue du Four à Paris et est membre du Cercle médical de la capitale.
+Professeur particulier d'anatomie et de physiologie, ancien interne des hôpitaux civils de Paris, il est élu membre adjoint résident de l'Académie royale de médecine en 1823.
 </t>
         </is>
       </c>
@@ -545,7 +559,9 @@
           <t>Publications</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Propositions sur les différentes branches de l'art de guérir. (Cand. L. P. Maingault) [thèse de médecine], Paris, 1810.
 Mémoire sur le vomissement, contradictoire à celui de M. Magendie, Paris, 1813.
